--- a/benchmarking/results/spot_llama-3-8b_ep10_training_ds_v17-1-2_3_param-6_eval.xlsx
+++ b/benchmarking/results/spot_llama-3-8b_ep10_training_ds_v17-1-2_3_param-6_eval.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -6833,27 +6833,27 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -19860,19 +19860,19 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K135" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -23931,11 +23931,11 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -23955,11 +23955,11 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="n">
@@ -24147,7 +24147,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -24157,11 +24157,11 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -24181,11 +24181,11 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="n">
@@ -24401,11 +24401,11 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -24425,11 +24425,11 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O172" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="n">
@@ -24798,7 +24798,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         </is>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="n">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -24941,11 +24941,11 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -24965,11 +24965,11 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O176" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
@@ -26659,11 +26659,11 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         </is>
       </c>
       <c r="O191" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P191" t="n">
         <v>1</v>
